--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value642.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value642.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.236988263972102</v>
+        <v>1.185631155967712</v>
       </c>
       <c r="B1">
-        <v>2.266312378157329</v>
+        <v>2.347034692764282</v>
       </c>
       <c r="C1">
-        <v>3.089157470514507</v>
+        <v>3.951726198196411</v>
       </c>
       <c r="D1">
-        <v>3.577596187089039</v>
+        <v>3.009632110595703</v>
       </c>
       <c r="E1">
-        <v>1.354661270925817</v>
+        <v>1.134935855865479</v>
       </c>
     </row>
   </sheetData>
